--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Desktop\New folder\Studies\R Practicals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Desktop\New folder\rpracticals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,24 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
-    <t>rollno</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Rollno</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>Nishant</t>
+  </si>
+  <si>
+    <t>Dev</t>
   </si>
   <si>
     <t>Sweety</t>
   </si>
   <si>
-    <t>Yukta</t>
-  </si>
-  <si>
-    <t>Huda</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -362,20 +371,20 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -385,8 +394,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>99</v>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -396,8 +405,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>98</v>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -407,8 +416,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>97</v>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
